--- a/personal/excel/abbreviation.xlsx
+++ b/personal/excel/abbreviation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A752AB1-275E-4586-A88C-624B5A3BF757}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E26C0C76-BD8B-4FBA-AAA6-C3133CECA938}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1950" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3420" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,8 +480,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -489,13 +495,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -503,27 +509,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>

--- a/personal/excel/abbreviation.xlsx
+++ b/personal/excel/abbreviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E26C0C76-BD8B-4FBA-AAA6-C3133CECA938}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703E9298-53BF-42B8-857E-7ACB89B366BC}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="3420" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="4155" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>sry</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>right now</t>
+  </si>
+  <si>
+    <t>tysm</t>
+  </si>
+  <si>
+    <t>thank you so much</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>no problem</t>
+  </si>
+  <si>
+    <t>thx</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,13 +443,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -439,13 +457,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -453,13 +471,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -467,13 +485,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -481,13 +499,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -495,13 +513,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -509,45 +527,63 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+    <sortCondition ref="C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/personal/excel/abbreviation.xlsx
+++ b/personal/excel/abbreviation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/personal/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703E9298-53BF-42B8-857E-7ACB89B366BC}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC01EF8-3424-4A57-AF0D-286F1781CBB2}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="4155" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="3570" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>sry</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>thanks</t>
+  </si>
+  <si>
+    <t>btw</t>
+  </si>
+  <si>
+    <t>by the way</t>
+  </si>
+  <si>
+    <t>tbh</t>
+  </si>
+  <si>
+    <t>to be honest</t>
   </si>
 </sst>
 </file>
@@ -418,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +445,7 @@
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -441,7 +453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -454,8 +466,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -468,8 +486,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -483,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -497,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -511,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -525,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -539,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -553,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -567,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -578,6 +602,22 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>

--- a/personal/excel/abbreviation.xlsx
+++ b/personal/excel/abbreviation.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC104861C1584D565ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBC01EF8-3424-4A57-AF0D-286F1781CBB2}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3570" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1074" yWindow="1746" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,18 +434,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -453,7 +453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -473,7 +473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -493,7 +493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -613,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>4</v>
       </c>
